--- a/Output/3. ANOVA_Results_Comparison.xlsx
+++ b/Output/3. ANOVA_Results_Comparison.xlsx
@@ -705,7 +705,7 @@
         <v>4.3599</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0374543</v>
+        <v>0.0375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         <v>0.9797</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3229045</v>
+        <v>0.3229</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         <v>29.173</v>
       </c>
       <c r="D16" t="n">
-        <v>1e-07</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>20.4602</v>
       </c>
       <c r="D18" t="n">
-        <v>6.7e-06</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>7.6128</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0058881</v>
+        <v>0.0059</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>9.865399999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.001815</v>
+        <v>0.0018</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>2.2516</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1342969</v>
+        <v>0.1343</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>0.6873</v>
       </c>
       <c r="D36" t="n">
-        <v>0.407201</v>
+        <v>0.4072</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>0.779</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3775438</v>
+        <v>0.3775</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>9.946099999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0016756</v>
+        <v>0.0017</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>6.6081</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0103415</v>
+        <v>0.0103</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>16.6265</v>
       </c>
       <c r="D42" t="n">
-        <v>5.03e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>3.2873</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0702147</v>
+        <v>0.0702</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
